--- a/data/trans_dic/P0902-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P0902-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>27,94%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>42,69%</t>
+          <t>42,12%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>36,9%</t>
+          <t>36,18%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,56; 31,56</t>
+          <t>24,13; 31,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40,0; 45,76</t>
+          <t>39,44; 45,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,82; 39,15</t>
+          <t>34,14; 38,4</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>9,58%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>12,51%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>11,03%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,41; 12,2</t>
+          <t>7,04; 11,17</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,43; 15,17</t>
+          <t>9,18; 14,44</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,9; 13,25</t>
+          <t>8,71; 12,44</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,65%</t>
+          <t>7,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>9,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>8,35%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 10,06</t>
+          <t>5,76; 9,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 11,15</t>
+          <t>7,48; 11,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,16; 10,01</t>
+          <t>7,09; 9,98</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,18%</t>
+          <t>18,02%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>15,03%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,6; 14,22</t>
+          <t>8,89; 13,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 20,44</t>
+          <t>14,76; 19,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,24; 17,09</t>
+          <t>13,0; 16,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P0902-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P0902-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,41; 17,94</t>
+          <t>13,38; 17,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>20,44; 26,54</t>
+          <t>20,26; 26,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,01; 23,4</t>
+          <t>17,62; 23,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,13; 31,09</t>
+          <t>24,17; 31,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,2; 25,81</t>
+          <t>21,17; 25,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>32,89; 38,28</t>
+          <t>32,97; 38,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>31,66; 37,89</t>
+          <t>31,79; 38,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>39,44; 45,09</t>
+          <t>39,3; 44,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>18,46; 21,5</t>
+          <t>18,2; 21,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>28,3; 32,34</t>
+          <t>28,34; 32,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>26,39; 30,85</t>
+          <t>26,53; 31,03</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>34,14; 38,4</t>
+          <t>34,13; 38,31</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,1</t>
+          <t>4,0; 6,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,89; 7,3</t>
+          <t>5,14; 7,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 7,5</t>
+          <t>5,28; 7,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 11,17</t>
+          <t>6,51; 11,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,8; 10,71</t>
+          <t>7,97; 10,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,91; 13,05</t>
+          <t>9,76; 12,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,0; 13,06</t>
+          <t>10,03; 13,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,18; 14,44</t>
+          <t>8,96; 14,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,18; 7,91</t>
+          <t>6,15; 7,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,7; 9,67</t>
+          <t>7,72; 9,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,9; 9,73</t>
+          <t>7,97; 9,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,71; 12,44</t>
+          <t>8,8; 12,37</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,35</t>
+          <t>2,64; 6,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 8,87</t>
+          <t>3,68; 8,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 7,33</t>
+          <t>3,12; 7,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,76; 9,93</t>
+          <t>5,74; 10,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,97; 11,37</t>
+          <t>5,78; 11,37</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,27; 10,53</t>
+          <t>5,5; 10,78</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 12,03</t>
+          <t>6,56; 12,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,48; 11,15</t>
+          <t>7,27; 11,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,71; 7,87</t>
+          <t>4,68; 7,78</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,05; 8,63</t>
+          <t>5,09; 8,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,6</t>
+          <t>5,4; 9,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,09; 9,98</t>
+          <t>6,97; 9,68</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,31; 9,16</t>
+          <t>7,29; 9,22</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,96; 12,3</t>
+          <t>9,84; 12,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,3; 10,41</t>
+          <t>8,21; 10,25</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,89; 13,41</t>
+          <t>9,35; 13,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,43; 15,85</t>
+          <t>13,37; 15,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,47; 21,23</t>
+          <t>18,66; 21,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,4; 19,18</t>
+          <t>16,36; 18,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,76; 19,62</t>
+          <t>14,67; 19,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,71; 12,25</t>
+          <t>10,73; 12,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,64; 16,47</t>
+          <t>14,66; 16,47</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,74; 14,46</t>
+          <t>12,7; 14,51</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,0; 16,13</t>
+          <t>13,09; 16,23</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que dejó de hacer algunas tareas por problemas físicos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>614</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>809</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>160050</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>226715</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>155515</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>141189</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>308485</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>474205</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>347666</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>318190</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>468535</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>700920</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>503182</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>459379</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>138077; 183486</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>197472; 253554</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>132917; 177720</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>124295; 162087</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>278407; 339721</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>441104; 511466</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>316197; 379727</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>296885; 339894</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>427221; 506420</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>655354; 749858</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>464007; 542660</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>433325; 486414</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>471</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>708</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>84334</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>121096</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>130736</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>219265</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>145949</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>198083</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>228477</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>279654</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>230283</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>319179</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>359213</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>498919</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>67663; 106166</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>100919; 144555</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>109616; 153058</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>149039; 260020</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>126502; 170682</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>171303; 227496</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>199416; 259917</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>200401; 323877</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>201686; 260657</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>287060; 355425</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>324056; 399212</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>397992; 559725</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>23054</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>27983</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>26702</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>49050</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>39234</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>34765</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>49033</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>60134</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>62288</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>62748</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>75735</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>109184</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14577; 34032</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>17722; 41171</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>17075; 39614</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>37129; 65437</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>27520; 54165</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25191; 49319</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>36034; 66048</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>48033; 72845</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>48139; 79982</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>47770; 79818</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>59189; 99618</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>91081; 126563</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>474</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>538</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1190</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>745</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1677</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>267438</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>375794</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>312953</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>409505</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>493667</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>707053</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>625176</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>657978</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>761106</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1082847</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>938130</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1067483</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>238988; 302230</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>336437; 411889</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>277369; 346241</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>322593; 460278</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>451936; 535285</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>662424; 761585</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>577812; 668724</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>535610; 715984</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>713886; 816233</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1021915; 1147552</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>877560; 1002585</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>929642; 1152497</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>